--- a/ValueSet-fish-species-value-set.xlsx
+++ b/ValueSet-fish-species-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T10:49:25+00:00</t>
+    <t>2022-08-29T10:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
